--- a/dmcar_skos_vocabulary.xlsx
+++ b/dmcar_skos_vocabulary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="136">
   <si>
     <t xml:space="preserve">ConceptScheme</t>
   </si>
@@ -378,46 +378,82 @@
     <t xml:space="preserve">Index</t>
   </si>
   <si>
+    <t xml:space="preserve">An index is a database structure that defines the creation of pointers and lookups that can be used by a query engine to define query plans that optimise performance.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Constraint</t>
   </si>
   <si>
+    <t xml:space="preserve">A constraint is a rule imposed on data in a table at column level, constraining the values that can be legally populated whilst preserving database integrity. Different rules might stipulare uniqueness, or the avoidance of null values. Foreign key constrains enforce that a value placed in the column match one of the primary key values from a lookup table. Different database platforms will offer a range of constraint options.</t>
+  </si>
+  <si>
     <t xml:space="preserve">CompoundKey</t>
   </si>
   <si>
     <t xml:space="preserve">Compound Key</t>
   </si>
   <si>
+    <t xml:space="preserve">A compound key is some link between tables that requires more than a single key. This might be because the primary key on the lookup table is a compound primary key, or it might be an unusual type of join. In most situations, compound keys can be replaced with a simpler, more performant type of database link and their adoption should be carefully considered.</t>
+  </si>
+  <si>
     <t xml:space="preserve">PrimaryKey, ForeignKey</t>
   </si>
   <si>
     <t xml:space="preserve">KGNAM</t>
   </si>
   <si>
+    <t xml:space="preserve">KGNAM is the namespace prefix for the kgnaming ontology. This ontology formalises some expectations around what information can be expected to be provided for a “NamedObject”. This would tend to include, a name, a “FullyQualifiedName” that can be used for mastering, and other common properties to enable certain features of a knowledge graph platform.</t>
+  </si>
+  <si>
     <t xml:space="preserve">DMCAR</t>
   </si>
   <si>
+    <t xml:space="preserve">DMCAR is the namespace prefix for the kgdmcar ontology. This ontology focuses on the main entities and interactions found within the Data Modelling domain, and aims to enable the capture of data modelling information to a high degree of fidelity.</t>
+  </si>
+  <si>
     <t xml:space="preserve">NamedObject</t>
   </si>
   <si>
     <t xml:space="preserve">Named Object</t>
   </si>
   <si>
+    <t xml:space="preserve">A NamedObject is a concept inherited from the kgnaming ontology. It defines some object, concept or thing that has a name, and a fully-qualified-name that enables that object to be uniquely identified. Additionally, NamedObjects are expected to have Descriptions and Labels to provide additional context.</t>
+  </si>
+  <si>
     <t xml:space="preserve">FullyQualifiedName</t>
   </si>
   <si>
     <t xml:space="preserve">Fully Qualified Name</t>
   </si>
   <si>
+    <t xml:space="preserve">A fully qualified name is a name that uniquely and unambiguously identifies an object. It is constructed by prepending an object’s namespace prior to the objects (short) name, separated by a dot. In some instances, namespaces can be compounded, with each level of namespace being delimited by a dot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NamedObject, KGNAM, Name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
+    <t xml:space="preserve">A description is a passage of text whose purpose is to outline what the associated object is, and provide additional contextual information. A good description should help someone’s understanding of an object.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">A name is a string of text that conforms to some constraints that can be used to identify an object. Some names are used colloquially and are not always formalised, resulting in possible “punning” or ambiguity. Main constrains in name-construction are no whitespace, and avoidance of dots, commas and other punctuation.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Label</t>
   </si>
   <si>
+    <t xml:space="preserve">A label is a relatively unconstricted string used to label an object. A label can contain dots, commas and whitespace. It may be used in visualisations or on gui components, so some care should be applied in choosing appropriate labels.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An interface is a specification that enables data be transferred or communicated between containers. Most interfaces will expose a schema, and publish details about how it will interpret, or expect that schema to be interpreted. </t>
   </si>
 </sst>
 </file>
@@ -730,8 +766,8 @@
   </sheetPr>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K47" activeCellId="0" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1349,7 +1385,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
@@ -1359,118 +1395,160 @@
       <c r="D37" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G37" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>117</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>123</v>
+        <v>134</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/dmcar_skos_vocabulary.xlsx
+++ b/dmcar_skos_vocabulary.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">SeeAlso</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Modelling</t>
+    <t xml:space="preserve">DataModelling</t>
   </si>
   <si>
     <t xml:space="preserve">Namespace</t>
@@ -296,32 +296,7 @@
     <t xml:space="preserve">Data-Type Scheme</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">A Datatype scheme is a vocabulary of datatypes that might be used in a given context. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Commonly, collections of datatype specifications will be grouped into a Datatype Scheme to form a recognisable standard. These could be proprietary to d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ifferent standards bodies, database platforms, languages and data format specifications.</t>
-    </r>
+    <t xml:space="preserve">A Datatype scheme is a vocabulary of datatypes that might be used in a given context. Commonly, collections of datatype specifications will be grouped into a Datatype Scheme to form a recognisable standard. These could be proprietary to different standards bodies, database platforms, languages and data format specifications.</t>
   </si>
   <si>
     <t xml:space="preserve">DataType</t>
@@ -463,7 +438,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -497,11 +472,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -766,8 +736,8 @@
   </sheetPr>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K47" activeCellId="0" sqref="K47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1283,7 +1253,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>

--- a/dmcar_skos_vocabulary.xlsx
+++ b/dmcar_skos_vocabulary.xlsx
@@ -341,10 +341,10 @@
     <t xml:space="preserve">Normalisation is the process and convention of organising database objects to minimise redundancy and preserve data integrity by structuring relationships through primary and foreign keys. Commonly this results in data models with a range of tables that reference one another through well defined relationships.</t>
   </si>
   <si>
+    <t xml:space="preserve">Denormalisation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Denormalization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denormalisation</t>
   </si>
   <si>
     <t xml:space="preserve">Denormalisation materialises joins creating fully self-contained datasets, without need for intermediary primary and foreign keys. This often results in added redundancy, and can weaken its integrity over time, but the resulting data is fully decoupled from the model from which it was sourced, enabling use in new and independent contexts.</t>
@@ -736,8 +736,8 @@
   </sheetPr>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1340,19 +1340,19 @@
         <v>14</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>108</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/dmcar_skos_vocabulary.xlsx
+++ b/dmcar_skos_vocabulary.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="140">
   <si>
     <t xml:space="preserve">ConceptScheme</t>
   </si>
@@ -101,6 +101,9 @@
     <t xml:space="preserve">A schema is a foundational data structure defining attributes with associated types and constraints. It’s a broad concept encompassing class, entity, and table definitions, extending to dynamic data like messages and query results. Schemas often exhibit relaxed normalization, prioritizing flexibility across diverse data representations.</t>
   </si>
   <si>
+    <t xml:space="preserve">Class, Table, Interface</t>
+  </si>
+  <si>
     <t xml:space="preserve">Attribute</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
     <t xml:space="preserve">A Class describes some set of objects that can be considered the same. That is, they can all be expected to share the same set of associated attributes and relationships by virtue of their being members of the class.</t>
   </si>
   <si>
+    <t xml:space="preserve">Schema, Table, Interface</t>
+  </si>
+  <si>
     <t xml:space="preserve">Join</t>
   </si>
   <si>
@@ -167,6 +173,9 @@
     <t xml:space="preserve">A table is a physical embodyment of a class in a relational database. A table will have a number of attributes associated with it expressed as columns, and individual instances of the entities modelled by the table will be expressed as rows of the table.</t>
   </si>
   <si>
+    <t xml:space="preserve">Schema, Class, Interface</t>
+  </si>
+  <si>
     <t xml:space="preserve">A concept is a unit or topic of thought.</t>
   </si>
   <si>
@@ -185,7 +194,7 @@
     <t xml:space="preserve">Dataset</t>
   </si>
   <si>
-    <t xml:space="preserve">A dataset is a curated collection of interrelated data, structured according to a defined data model and constrained by some set of specific scoping criteria – perhaps expressed as a series of temporal, geographical, or sourcing constraints. </t>
+    <t xml:space="preserve">A dataset is a curated collection of interrelated data, structured according to a defined data model and constrained (either formally, or by practical consequence) by some set of specific scoping criteria – these could be for example, temporal, geographical, or practical sourcing constraints or a combination of these and more.</t>
   </si>
   <si>
     <t xml:space="preserve">Row</t>
@@ -429,6 +438,9 @@
   </si>
   <si>
     <t xml:space="preserve">An interface is a specification that enables data be transferred or communicated between containers. Most interfaces will expose a schema, and publish details about how it will interpret, or expect that schema to be interpreted. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schema, Class, Table</t>
   </si>
 </sst>
 </file>
@@ -736,8 +748,8 @@
   </sheetPr>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K48" activeCellId="0" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -871,22 +883,25 @@
       <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="K6" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -894,13 +909,13 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,16 +923,19 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -925,13 +943,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -939,19 +957,19 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -959,19 +977,19 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -979,13 +997,16 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1007,13 +1028,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1021,27 +1042,27 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,16 +1070,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,13 +1087,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1080,13 +1101,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1094,16 +1115,16 @@
         <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1111,13 +1132,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1125,19 +1146,19 @@
         <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,13 +1166,13 @@
         <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>21</v>
@@ -1162,13 +1183,13 @@
         <v>14</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>21</v>
@@ -1179,13 +1200,13 @@
         <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>21</v>
@@ -1196,13 +1217,13 @@
         <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,13 +1231,13 @@
         <v>14</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1224,16 +1245,16 @@
         <v>14</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,16 +1262,16 @@
         <v>14</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1258,13 +1279,13 @@
         <v>14</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1272,13 +1293,13 @@
         <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1286,16 +1307,16 @@
         <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1303,16 +1324,16 @@
         <v>14</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,19 +1341,19 @@
         <v>14</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1340,19 +1361,19 @@
         <v>14</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1360,13 +1381,13 @@
         <v>14</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1374,13 +1395,13 @@
         <v>14</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1388,16 +1409,16 @@
         <v>14</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1405,13 +1426,13 @@
         <v>14</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1419,13 +1440,13 @@
         <v>14</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1433,13 +1454,13 @@
         <v>14</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1447,16 +1468,16 @@
         <v>14</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1464,13 +1485,13 @@
         <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1478,16 +1499,16 @@
         <v>14</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,13 +1516,13 @@
         <v>14</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,16 +1530,16 @@
         <v>14</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/dmcar_skos_vocabulary.xlsx
+++ b/dmcar_skos_vocabulary.xlsx
@@ -20,11 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="144">
   <si>
     <t xml:space="preserve">ConceptScheme</t>
   </si>
   <si>
+    <t xml:space="preserve">ConceptSchemeLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConceptSchemeDescription</t>
+  </si>
+  <si>
     <t xml:space="preserve">Concept</t>
   </si>
   <si>
@@ -65,6 +71,12 @@
   </si>
   <si>
     <t xml:space="preserve">DataModelling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Modelling Concept Scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A controlled vocabulary covering topics across the domain of data modelling.</t>
   </si>
   <si>
     <t xml:space="preserve">Namespace</t>
@@ -746,25 +758,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K48" activeCellId="0" sqref="K48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="2.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="82.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="23.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="41.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="2.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="82.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="23.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="18.08"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -774,7 +789,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -786,16 +801,16 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -810,736 +825,1018 @@
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>65</v>
+        <v>17</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>17</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>17</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>21</v>
+        <v>77</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>76</v>
+        <v>17</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>21</v>
+        <v>83</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>17</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>85</v>
+        <v>17</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>87</v>
+        <v>17</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>91</v>
+        <v>17</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>95</v>
+        <v>17</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>17</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>99</v>
+        <v>17</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>102</v>
+        <v>17</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>106</v>
+        <v>17</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>17</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>112</v>
+        <v>17</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>114</v>
+        <v>17</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>116</v>
+        <v>17</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>120</v>
+        <v>17</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>122</v>
+        <v>17</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>124</v>
+        <v>17</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>127</v>
+        <v>17</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>131</v>
+        <v>17</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>133</v>
+        <v>17</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>135</v>
+        <v>17</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>137</v>
+        <v>17</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
